--- a/dados_2013.xlsx
+++ b/dados_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeichiTS\Documents\MEGA\Pessoais\Rn222_Fosfogesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45CFC6-DA3C-408F-B0DE-4F17834D7886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE18286-EDAC-465B-9DDD-CBD0F2CD5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="768" yWindow="876" windowWidth="11688" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,207 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>2013 2 26 0 0</t>
-  </si>
-  <si>
-    <t>2013 2 27 0 0</t>
-  </si>
-  <si>
-    <t>2013 2 28 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 1 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 2 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 3 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 4 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 5 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 6 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 7 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 8 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 9 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 10 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 11 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 12 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 13 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 14 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 15 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 16 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 17 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 18 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 19 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 20 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 21 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 22 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 23 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 24 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 25 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 26 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 27 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 28 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 29 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 30 0 0</t>
-  </si>
-  <si>
-    <t>2013 3 31 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 1 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 2 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 3 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 4 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 5 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 6 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 7 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 8 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 9 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 10 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 11 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 12 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 13 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 14 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 15 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 16 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 17 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 18 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 19 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 20 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 21 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 22 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 23 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 24 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 25 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 26 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 27 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 28 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 29 0 0</t>
-  </si>
-  <si>
-    <t>2013 4 30 0 0</t>
-  </si>
-  <si>
-    <t>2013 5 1 0 0</t>
-  </si>
-  <si>
-    <t>2013 5 2 0 0</t>
   </si>
   <si>
     <t>2013 5 3 0 0</t>
@@ -1312,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A310"/>
+  <dimension ref="A1:A244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2538,336 +2340,6 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_2013.xlsx
+++ b/dados_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeichiTS\Documents\MEGA\Pessoais\Rn222_Fosfogesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE18286-EDAC-465B-9DDD-CBD0F2CD5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0C580-3FA7-4424-A572-1528F16DC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="768" yWindow="876" windowWidth="11688" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>2013 5 3 0 0</t>
-  </si>
-  <si>
-    <t>2013 5 4 0 0</t>
-  </si>
-  <si>
-    <t>2013 5 5 0 0</t>
   </si>
   <si>
     <t>2013 5 6 0 0</t>
@@ -1114,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A244"/>
+  <dimension ref="A1:A241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2325,21 +2316,6 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
